--- a/src/resources/松下项目报表模板.xlsx
+++ b/src/resources/松下项目报表模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wall\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCE046E-A1B6-4CAB-AD92-C5D37B8995F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101AD126-BF30-4B5F-B3F5-3C512535D83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="912" windowWidth="20520" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目模板" sheetId="1" r:id="rId1"/>
@@ -709,27 +709,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,6 +749,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,10 +1055,10 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1071,29 +1071,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:27" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1103,58 +1103,58 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="26"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="19"/>
     </row>
     <row r="3" spans="1:27" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="M3" s="7"/>
@@ -1174,31 +1174,31 @@
         <v>17</v>
       </c>
       <c r="U3" s="7"/>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="8" t="s">
+      <c r="W3" s="28"/>
+      <c r="X3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="9"/>
+      <c r="Y3" s="28"/>
       <c r="Z3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AA3" s="7"/>
     </row>
     <row r="4" spans="1:27" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1251,6 +1251,12 @@
     <row r="5" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A1:K1"/>
@@ -1267,12 +1273,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
